--- a/fuentes/contenidos/grado04/guion02/SolicitudGrafica_MA_04_02_CO.xlsx
+++ b/fuentes/contenidos/grado04/guion02/SolicitudGrafica_MA_04_02_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="204">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -588,13 +588,7 @@
     <t>5°ESO/Matemáticas/Los números naturales/1.2 La representación y la ordenación de los números naturales sobre la recta numérica/Primera imagen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Imagen de tres rectas numéricas ubicando tres números diferentes. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Imagen de tabla mostrando el redondeo del mismo número a diferentes posiciones. Tener en cuenta el resaltar la cifra que ocupa la posición a la que se está redondeando. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen de tabla mostrando el redondeo del mismo número a diferentes posiciones en la recta numérica. Tener en cuenta el subrayar la cifra que ocupa la posición a la que se está redondeando. </t>
   </si>
   <si>
     <t xml:space="preserve">Imagen de un salón de clases donde se ven niñas y niños sentados. </t>
@@ -687,6 +681,21 @@
   </si>
   <si>
     <t>Libros enumerados en sistema de numeración egipcio</t>
+  </si>
+  <si>
+    <t>Fotografía de un código de barras</t>
+  </si>
+  <si>
+    <t>Imagen de tres rectas numéricas ubicando tres números diferentes. Por favor quitar los puntos en 1.100 (escribir 1 100), 1.200 (escribir 1 200), 1.300 (escribir 1 300), 1.400 (escribir 1 400), 1.500 (escribir 1 500), 1.600 (escribir 1 600).</t>
+  </si>
+  <si>
+    <t>Gente haciendo fila para ser atendido</t>
+  </si>
+  <si>
+    <t>MA_04_02_CO_IMG11_zoom</t>
+  </si>
+  <si>
+    <t>IMG20</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -746,12 +755,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -1401,7 +1404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1484,14 +1487,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1509,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1530,49 +1530,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,28 +1593,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,7 +1624,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,13 +1636,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1663,7 +1663,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,22 +1678,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1723,10 +1723,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1868,13 +1868,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>4629150</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>1504950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1918,14 +1918,14 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:colOff>23811</xdr:colOff>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>4572000</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:colOff>4548186</xdr:colOff>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>1676400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1967,100 +1967,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>746125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3797300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1432560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="42375" t="38305" r="16098" b="31186"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17105313" y="7810500"/>
-          <a:ext cx="3051175" cy="1400810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2986087</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1530667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="1697" t="21118" r="77088" b="22768"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17383125" y="2024062"/>
-          <a:ext cx="1962150" cy="1459230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3755390</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>873125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2069,7 +1983,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="9674" t="41633" r="75390" b="43706"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2093,108 +2007,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>3754437</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>2751792</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2072" name="Object 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2072"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>47624</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>4572000</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>4276724</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2076" name="Object 28" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2076"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2214,7 +2026,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect l="5508" t="34915" r="73939" b="41356"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2242,13 +2054,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1444625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3190240</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1804987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2257,7 +2069,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect l="5932" t="51525" r="72669" b="13220"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2287,14 +2099,14 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>79375</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>4067175</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>1631950</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>1628775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2336,13 +2148,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1730375</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2751455</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1239520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2351,7 +2163,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect l="7203" t="37966" r="74576" b="33899"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2381,13 +2193,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>674687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4299902</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1575752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2396,7 +2208,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="3602" t="44832" r="56353" b="40339"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2426,13 +2238,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1031875</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>277813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2088515</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>859473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2441,7 +2253,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect l="3814" t="44746" r="77329" b="38644"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2471,13 +2283,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2674938</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>277813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3731578</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>859473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2486,7 +2298,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect l="24577" t="44746" r="56566" b="38644"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2506,6 +2318,413 @@
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1373187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1962150" cy="1459230"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="1697" t="21118" r="77088" b="22768"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17732375" y="4175125"/>
+          <a:ext cx="1962150" cy="1459230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1404934</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3221034</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1983422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21" descr="Bar code vector illustration isolated - stock vector"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17764122" y="2039937"/>
+          <a:ext cx="1816100" cy="1896110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>547687</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>39687</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>4405312</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>2373312</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Object 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>627063</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>15875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>3970338</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>2882900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2094" name="Object 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2094"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3936277</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2468562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26" descr="FRANKFURT - JUNE 26. Colombian traditional dance at the Parade der Kulturen. June 26, 2010 in Frankfurt, Germany."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16922751" y="8556625"/>
+          <a:ext cx="3372714" cy="2397125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3984625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2374055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27" descr="Buying the movie tickets. Young people waiting in line to buy the movie tickets"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17057688" y="19589752"/>
+          <a:ext cx="3286125" cy="2334366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2524126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2471004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28" descr="Businessmen holding two puzzles to connect on wooden floor"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17184688" y="22074189"/>
+          <a:ext cx="2936875" cy="2478940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1135064</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3449486</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2413001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29" descr="Oranges or clementines arranged in a box"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17494252" y="26431876"/>
+          <a:ext cx="2314422" cy="2413000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3228,9 +3447,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3257,8 +3478,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -3267,16 +3488,16 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="93"/>
+      <c r="F2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3284,14 +3505,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="94">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="95"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -3299,19 +3520,19 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -3320,20 +3541,20 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="50" t="str">
+      <c r="F5" s="49" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -3345,20 +3566,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1"/>
@@ -3374,12 +3595,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -3404,39 +3625,39 @@
       <c r="E9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="72" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="170.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>162</v>
+      <c r="B10" s="76">
+        <v>176944715</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D10" s="76" t="s">
-        <v>165</v>
+      <c r="D10" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>146</v>
@@ -3457,30 +3678,30 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="82"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="J10" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="81"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>161</v>
+      <c r="B11" s="76" t="s">
+        <v>162</v>
       </c>
       <c r="C11" s="26" t="str">
-        <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="75" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_04_02_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
@@ -3488,37 +3709,37 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="2">IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f>IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_04_02_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="82"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="J11" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="81"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="79" t="s">
-        <v>166</v>
+      <c r="B12" s="78" t="s">
+        <v>161</v>
       </c>
       <c r="C12" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C23" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="14" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F12:F75" si="1">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_04_02_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
@@ -3526,33 +3747,33 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H12:H75" si="2">IF(I12&lt;&gt;"",IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_04_02_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="82"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="J12" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="81"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="79">
-        <v>56196217</v>
+      <c r="B13" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D13" s="76" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="76" t="s">
+      <c r="D13" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="14" t="str">
@@ -3571,26 +3792,26 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="82"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="J13" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="81"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>166</v>
+      <c r="B14" s="78">
+        <v>56196217</v>
       </c>
       <c r="C14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="76" t="s">
+      <c r="D14" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
@@ -3609,26 +3830,26 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="J14" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="81"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>169</v>
+      <c r="B15" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="C15" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="75" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="14" t="str">
@@ -3647,26 +3868,26 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="J15" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="81"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="83" t="s">
-        <v>166</v>
+      <c r="B16" s="78" t="s">
+        <v>169</v>
       </c>
       <c r="C16" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="75" t="s">
         <v>146</v>
       </c>
       <c r="F16" s="14" t="str">
@@ -3685,26 +3906,26 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="82"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="350.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="J16" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="81"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="231.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>166</v>
       </c>
       <c r="C17" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="75" t="s">
         <v>146</v>
       </c>
       <c r="F17" s="14" t="str">
@@ -3723,17 +3944,17 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="81"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="K17" s="82"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>174</v>
       </c>
       <c r="C18" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3761,17 +3982,17 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="85" t="s">
+      <c r="J18" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="81"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="82"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>175</v>
-      </c>
       <c r="B19" s="32">
-        <v>193503416</v>
+        <v>148168535</v>
       </c>
       <c r="C19" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3800,23 +4021,22 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
+        <v>175</v>
+      </c>
+      <c r="B20" s="32">
+        <v>193503416</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>146</v>
@@ -3829,32 +4049,31 @@
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>MA_04_02_CO_IMG11_zoom</v>
+      <c r="H20" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="85">
-        <v>99829766</v>
+      <c r="B21" s="82" t="s">
+        <v>177</v>
       </c>
       <c r="C21" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>146</v>
@@ -3875,24 +4094,24 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="21" t="s">
-        <v>181</v>
+      <c r="J21" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="B22" s="84">
+        <v>99829766</v>
       </c>
       <c r="C22" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>146</v>
@@ -3913,20 +4132,21 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" s="82"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
+      <c r="J22" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>147</v>
+        <v>184</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>165</v>
@@ -3950,23 +4170,23 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="81"/>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="26">
-        <v>143252512</v>
-      </c>
-      <c r="C24" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="82" t="s">
         <v>147</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>146</v>
@@ -3987,19 +4207,19 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K24" s="15"/>
+      <c r="J24" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="26">
+        <v>143252512</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>147</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -4025,22 +4245,22 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="83" t="s">
+      <c r="B26" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>146</v>
@@ -4062,18 +4282,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="82" t="s">
         <v>147</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4098,23 +4318,23 @@
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="175.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="26">
-        <v>39547555</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="82" t="s">
         <v>147</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>146</v>
@@ -4135,42 +4355,51 @@
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="19" t="s">
-        <v>200</v>
+      <c r="J28" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="str">
-        <f t="shared" ref="A19:A30" si="3">IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(LEFT(A28,3),IF(MID(A28,4,2)+1&lt;10,CONCATENATE("0",MID(A28,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="26">
+        <v>39547555</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MA_04_02_CO_IMG20_small</v>
       </c>
       <c r="G29" s="14" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H29" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>MA_04_02_CO_IMG20_zoom</v>
       </c>
       <c r="I29" s="14" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A30:A31" si="3">IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(LEFT(A29,3),IF(MID(A29,4,2)+1&lt;10,CONCATENATE("0",MID(A29,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B30" s="27"/>
@@ -4197,7 +4426,10 @@
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="14"/>
@@ -4298,8 +4530,8 @@
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
@@ -4318,13 +4550,13 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
@@ -4348,8 +4580,8 @@
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
@@ -4368,13 +4600,13 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
@@ -4393,13 +4625,13 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
@@ -4418,7 +4650,7 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4973,8 +5205,8 @@
     </row>
     <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
@@ -5303,7 +5535,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -5311,7 +5543,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="5">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -5328,7 +5560,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F76:F109" si="4">IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I76="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -5336,7 +5568,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H76:H109" si="5">IF(I76&lt;&gt;"",IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),CONCATENATE($C$7,"_",$A76,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -6145,6 +6377,31 @@
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G109" s="14" t="str">
+        <f>IF(F109&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H109" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I109" s="14" t="str">
+        <f>IF(OR(B109&lt;&gt;"",J109&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J109" s="14"/>
+      <c r="K109" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6170,12 +6427,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
-      <formula1>"Vertical,Horizontal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
-      <formula1>"Ilustración,Fotografía"</formula1>
-    </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
       <formula1>42036</formula1>
       <formula2>42490</formula2>
@@ -6192,6 +6443,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E109">
+      <formula1>"Vertical,Horizontal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D109">
+      <formula1>"Ilustración,Fotografía"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6206,13 +6463,13 @@
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>4629150</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>1504950</xdr:rowOff>
               </to>
             </anchor>
@@ -6230,14 +6487,14 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>4572000</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:colOff>4543425</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>1676400</xdr:rowOff>
               </to>
             </anchor>
@@ -6250,69 +6507,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2072" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>3752850</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>2752725</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2072" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2076" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>4572000</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>4276725</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2076" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2084" r:id="rId12">
-          <objectPr defaultSize="0" r:id="rId13">
+        <oleObject progId="PBrush" shapeId="2084" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>4067175</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>1628775</xdr:rowOff>
               </to>
             </anchor>
@@ -6320,7 +6527,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2084" r:id="rId12"/>
+        <oleObject progId="PBrush" shapeId="2084" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2091" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>4400550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>2371725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2091" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2094" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>3971925</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>2886075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2094" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6343,539 +6600,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11" style="35"/>
-    <col min="3" max="3" width="13.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="35" customWidth="1"/>
-    <col min="5" max="7" width="11" style="35"/>
-    <col min="8" max="11" width="11" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="72.25" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11" style="34"/>
+    <col min="3" max="3" width="13.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="34" customWidth="1"/>
+    <col min="5" max="7" width="11" style="34"/>
+    <col min="8" max="11" width="11" style="34" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="45"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="44"/>
+      <c r="H3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="44"/>
+      <c r="H4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <v>1</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="114" t="str">
+      <c r="D5" s="113" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="45"/>
-      <c r="H5" s="35" t="s">
+      <c r="E5" s="114"/>
+      <c r="F5" s="44"/>
+      <c r="H5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="H6" s="35" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="H6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>3</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="100" t="str">
+      <c r="D7" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="H7" s="35" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="H7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="I8" s="35" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="I8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>5</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="I9" s="35" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="I9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>6</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="I10" s="35" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>7</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>8</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>9</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="I13" s="35" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="I13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>10</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="I14" s="35" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="I14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>11</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="105" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
-      <c r="J15" s="35">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="J15" s="34">
         <v>12</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>13</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="108" t="str">
+      <c r="D17" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="J17" s="35">
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="J17" s="34">
         <v>14</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="100" t="str">
+      <c r="D18" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="J18" s="35">
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="J18" s="34">
         <v>15</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="H19" s="35">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="H19" s="34">
         <v>3</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>16</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="H20" s="35">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="34">
         <v>4</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>5</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>4</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="35" t="str">
+      <c r="H21" s="34" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="35" t="str">
+      <c r="I21" s="34" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="35" t="str">
+      <c r="J21" s="34" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="35">
+      <c r="K22" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="35">
+      <c r="K23" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="35">
+      <c r="K24" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="35">
+      <c r="K25" s="34">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="35">
+      <c r="K26" s="34">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="35">
+      <c r="K27" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="35">
+      <c r="K28" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="35">
+      <c r="K29" s="34">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="35">
+      <c r="K30" s="34">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="35">
+      <c r="K31" s="34">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="35">
+      <c r="K32" s="34">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="35">
+      <c r="K33" s="34">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="35">
+      <c r="K34" s="34">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="35">
+      <c r="K35" s="34">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="35">
+      <c r="K36" s="34">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="35">
+      <c r="K37" s="34">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="35">
+      <c r="K38" s="34">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="35">
+      <c r="K39" s="34">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="35">
+      <c r="K40" s="34">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="35">
+      <c r="K41" s="34">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="35">
+      <c r="K42" s="34">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="35">
+      <c r="K43" s="34">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="35">
+      <c r="K44" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="35" t="str">
+      <c r="K45" s="34" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -7070,559 +7327,559 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="35" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="35"/>
-    <col min="5" max="5" width="11.75" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11" style="35" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="35" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="35" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="35"/>
+    <col min="1" max="1" width="21" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="34"/>
+    <col min="5" max="5" width="11.75" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11" style="34" customWidth="1"/>
+    <col min="8" max="9" width="22.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="34" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="57" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="57"/>
-    </row>
-    <row r="10" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57" t="s">
+      <c r="G13" s="59"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="35" t="s">
+      <c r="J13" s="59"/>
+      <c r="K13" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57" t="s">
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="57" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="35" t="s">
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62" t="s">
+      <c r="G16" s="60"/>
+      <c r="H16" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="60"/>
+      <c r="K16" s="62" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="65" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="64" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
